--- a/PORTO_XAVIER.xlsx
+++ b/PORTO_XAVIER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E78CA2E-9354-474D-8180-B3C631AC2479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD94E80-8E79-48C2-8E1E-7DF10C1F7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1059,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1119,36 +1106,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,14 +1150,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,7 +1198,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3916DA68-2A71-45D9-B765-6E669C607C57}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B434447F-C37D-4FC7-8754-0D08DF89865D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,10 +1228,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAA86C-2F7F-4E5A-936D-16E4CEF8C260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E85D1E-2CFD-46AB-BD46-071EC8691FF2}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1269,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93137246-23D3-4CFF-86E3-57E472B7F550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6850F7-5369-4B8D-A89E-C2135CF2D0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1332,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F38463-203F-411E-A6D4-30326DF746B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2501D49-6EB4-4DA5-B85D-E53EA129A3CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1351,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4CC4F2-EA03-9A16-F38D-9EFDB5CB4596}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DF34BF-88F8-0B60-6FF2-75FAA97266A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,7 +1400,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BAFAAA-62D9-0415-EB1A-0C873D626E96}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43FC4F9-FC78-0868-068B-FAC8A5CCD895}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,7 +1419,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133233A3-1C7E-416F-8AF9-F2204EBFC848}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BAB530-0A68-7351-21EF-95714369291E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1492,7 +1450,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BA49D9-435E-DAFA-0838-5FBB588DDBA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D954920-57BA-4A64-1248-165C9E819E01}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1481,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7104DA8A-5998-04CE-61E8-EE13E7699B45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1399CD75-CD25-3FCC-6BFC-B21A1DF51BDC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1566,7 +1524,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD8BAA3-A54F-46CE-A163-A3053C960C14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C3463A-4BFB-4410-9D20-BC1D6236C766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1562,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981B7C5B-C9CD-492A-907C-8B951CC8B3FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF442DA0-2BE4-4602-8A5E-A91AB07080C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1605,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6887C004-B6D7-40A2-8D24-D808CAE38D08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513C89FC-659F-4E82-936F-9FC70C49F50F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6113EDD0-29C6-4B54-9B11-BA0B3D392C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A95F2-7884-47C0-91AF-14BDB68EC4B3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1972,98 +1930,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5299,19 +5257,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5334,57 +5292,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5409,54 +5367,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5467,41 +5426,41 @@
       <c r="B2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45839</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>3446</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>531</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>294</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5532,25 +5491,24 @@
       <c r="B1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="32">
         <v>3</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="35">
-        <v>3</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.9838645681788121E-4</v>
       </c>
     </row>

--- a/PORTO_XAVIER.xlsx
+++ b/PORTO_XAVIER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD94E80-8E79-48C2-8E1E-7DF10C1F7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E947ED-B652-4AC4-AEB4-5D5A3D232C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B434447F-C37D-4FC7-8754-0D08DF89865D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4F795BCF-325A-4E2F-BECB-1112B3FAD55F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,10 +1228,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E85D1E-2CFD-46AB-BD46-071EC8691FF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD42BE5A-2D58-471C-BE55-A10DA37CADAB}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6850F7-5369-4B8D-A89E-C2135CF2D0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE86FC11-572D-4502-AE2C-3F216E6036C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1332,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2501D49-6EB4-4DA5-B85D-E53EA129A3CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101D635D-2A7C-45E8-8363-17E8AF4D602C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1351,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DF34BF-88F8-0B60-6FF2-75FAA97266A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC701FD5-B1B4-5F05-A28B-69AD059DEF59}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43FC4F9-FC78-0868-068B-FAC8A5CCD895}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA7845E-D0D9-7280-0C73-FF4CAE8794D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BAB530-0A68-7351-21EF-95714369291E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C2D12-66A0-7459-D01A-B8D7FC1BB431}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1450,7 +1450,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D954920-57BA-4A64-1248-165C9E819E01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A6629C-07D8-CEB4-0C3C-E0886854E291}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1481,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1399CD75-CD25-3FCC-6BFC-B21A1DF51BDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8182E9FC-399C-4C4A-C4D6-8B9ED382607D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1524,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C3463A-4BFB-4410-9D20-BC1D6236C766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE2B0F0-7000-45B9-96C9-A48F1920C6D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF442DA0-2BE4-4602-8A5E-A91AB07080C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A947D27-1ABF-453A-8982-39DA677F82B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1605,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513C89FC-659F-4E82-936F-9FC70C49F50F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CAEDA5-CE4E-4BE7-906C-AB3A6CCA72A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A95F2-7884-47C0-91AF-14BDB68EC4B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81411794-E5AD-44AD-87B8-7B7D32CBB936}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PORTO_XAVIER.xlsx
+++ b/PORTO_XAVIER.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E947ED-B652-4AC4-AEB4-5D5A3D232C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46CB8DD-6EFA-4EA0-8FEE-97A88F449E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="297">
   <si>
     <t>COMARCA</t>
   </si>
@@ -917,15 +916,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>PORTO XAVIER</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,27 +1168,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4F795BCF-325A-4E2F-BECB-1112B3FAD55F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6D9A4607-C9D3-475E-843E-8CF403C74835}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,10 +1203,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD42BE5A-2D58-471C-BE55-A10DA37CADAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56764F4A-1B74-4F5F-8021-56E5674566A5}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1244,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE86FC11-572D-4502-AE2C-3F216E6036C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F916CC81-EE3E-4B84-A2A2-0D8E85DB1206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1307,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101D635D-2A7C-45E8-8363-17E8AF4D602C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F192A9-AF81-403E-A313-BED54E90F7C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1326,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC701FD5-B1B4-5F05-A28B-69AD059DEF59}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37AF663-E120-5F7D-4082-1E4F8F922B39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1375,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA7845E-D0D9-7280-0C73-FF4CAE8794D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7199C01C-79B5-2DE2-4909-198EA5DC5C9E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1419,7 +1394,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C2D12-66A0-7459-D01A-B8D7FC1BB431}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFA1355-20B4-04D7-4C34-9863E8B91FDA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1450,7 +1425,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A6629C-07D8-CEB4-0C3C-E0886854E291}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75679E16-8BCF-4DE2-F2B4-B6E2639840F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1456,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8182E9FC-399C-4C4A-C4D6-8B9ED382607D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A464634A-24D1-1DDB-5C72-81984D8917A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1499,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE2B0F0-7000-45B9-96C9-A48F1920C6D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517345B7-25E7-4E76-872E-2FC76AAC0964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1537,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A947D27-1ABF-453A-8982-39DA677F82B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CDE52B-50D9-4DB0-BA23-FBD10613B064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1580,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CAEDA5-CE4E-4BE7-906C-AB3A6CCA72A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB574F6-4BFB-4125-81CD-F673DDAF6422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81411794-E5AD-44AD-87B8-7B7D32CBB936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE9019-2A4E-40E5-B4E5-622C7C9330F8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1930,98 +1905,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5467,52 +5442,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="32">
-        <v>3</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.9838645681788121E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PORTO_XAVIER.xlsx
+++ b/PORTO_XAVIER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46CB8DD-6EFA-4EA0-8FEE-97A88F449E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE419DBC-AF9A-4D0E-8240-3EA0022CCD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6D9A4607-C9D3-475E-843E-8CF403C74835}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2ED92F34-2C22-48B7-81FD-A75B268C9BFD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,10 +1203,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56764F4A-1B74-4F5F-8021-56E5674566A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71224EA8-A40E-4AB1-B5B9-A2AD6FC96BDA}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F916CC81-EE3E-4B84-A2A2-0D8E85DB1206}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4DE340-45D9-421B-9CAA-E080262330C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1307,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F192A9-AF81-403E-A313-BED54E90F7C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAD14C8-C3CF-4E76-95DE-45EA4278FA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37AF663-E120-5F7D-4082-1E4F8F922B39}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9377CADF-ABD6-404D-5815-FE4AC86E9FEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7199C01C-79B5-2DE2-4909-198EA5DC5C9E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A992129-0906-060C-9CE6-D5046E77CF8C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFA1355-20B4-04D7-4C34-9863E8B91FDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B999D5A0-5BA9-6BA4-E055-585922BE4E5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75679E16-8BCF-4DE2-F2B4-B6E2639840F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3EE0FD-8DE7-519F-8157-AEA957683B1A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A464634A-24D1-1DDB-5C72-81984D8917A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B18719-5600-8283-B152-5709796BC8E1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517345B7-25E7-4E76-872E-2FC76AAC0964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C790F3AE-D32D-43AC-9FD6-9EA40D33ADFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CDE52B-50D9-4DB0-BA23-FBD10613B064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD292EAD-CB18-4C8B-AC0F-E44D75A7518D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,50 +1562,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB574F6-4BFB-4125-81CD-F673DDAF6422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1893,7 +1849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE9019-2A4E-40E5-B4E5-622C7C9330F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A20F3C2-3AE2-4A95-AF11-601FFC9919CD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
